--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Amir</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2988</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2990</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2991</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/08/2009</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2992</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2993</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>23/09/2009</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3021</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3074</t>
+          <t>3074</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3075</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3122</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1426,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/08/2016</t>
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1473,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -1420,7 +1480,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1472,7 +1532,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1524,7 +1584,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1564,7 +1624,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1723,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -1672,7 +1730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1724,7 +1782,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1764,7 +1822,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1772,7 +1829,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1824,7 +1881,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1876,7 +1933,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1928,7 +1985,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2025,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2072,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -2024,7 +2079,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2119,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -2072,7 +2126,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2164,7 +2218,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -2172,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2264,7 +2317,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -2272,7 +2324,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2312,7 +2364,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -2320,7 +2371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2372,7 +2423,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2424,7 +2475,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2464,7 +2515,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -2472,7 +2522,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2512,7 +2562,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/07/2018</t>
@@ -2520,7 +2569,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2560,7 +2609,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -2568,7 +2616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2608,7 +2656,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -2616,7 +2663,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2656,7 +2703,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -2664,7 +2710,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2716,7 +2762,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2756,7 +2802,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -2764,7 +2809,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2804,7 +2849,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2812,7 +2856,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2852,7 +2896,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2860,7 +2903,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2912,7 +2955,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2952,7 +2995,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2960,7 +3002,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3000,7 +3042,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -3008,7 +3049,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3060,7 +3101,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3100,7 +3141,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>03/06/2019</t>
@@ -3108,7 +3148,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3160,7 +3200,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3200,7 +3240,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -3208,7 +3247,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3248,7 +3287,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/06/2019</t>
@@ -3256,7 +3294,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3296,7 +3334,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -3304,7 +3341,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3344,7 +3381,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>29/06/2019</t>
@@ -3352,7 +3388,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3404,7 +3440,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3444,7 +3480,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>30/09/2019</t>
@@ -3452,7 +3487,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3492,7 +3527,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -3500,7 +3534,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3539,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3561,7 +3595,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3598,7 +3632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2988</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3635,7 +3669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2990</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3672,7 +3706,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2991</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3709,7 +3743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2992</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3746,7 +3780,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2993</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3783,7 +3817,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3021</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3820,7 +3854,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3857,7 +3891,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3894,7 +3928,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3931,7 +3965,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3968,7 +4002,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4005,7 +4039,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3074</t>
+          <t>3074</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4042,7 +4076,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3075</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4079,7 +4113,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3122</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4116,7 +4150,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4153,7 +4187,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4190,7 +4224,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4227,7 +4261,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4264,7 +4298,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4301,7 +4335,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4338,7 +4372,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4375,7 +4409,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4412,7 +4446,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4449,7 +4483,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4486,7 +4520,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4523,7 +4557,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4560,7 +4594,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4597,7 +4631,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4634,7 +4668,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4671,7 +4705,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4708,7 +4742,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4745,7 +4779,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4782,7 +4816,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4819,7 +4853,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4856,7 +4890,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4893,7 +4927,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4930,7 +4964,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4967,7 +5001,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5004,7 +5038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5041,7 +5075,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5078,7 +5112,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5115,7 +5149,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5152,7 +5186,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5189,7 +5223,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5226,7 +5260,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5263,7 +5297,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5300,7 +5334,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5337,7 +5371,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5374,7 +5408,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5411,7 +5445,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5448,7 +5482,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5485,7 +5519,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5522,7 +5556,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5559,7 +5593,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5596,7 +5630,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5633,7 +5667,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5670,7 +5704,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5707,7 +5741,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5744,7 +5778,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5781,7 +5815,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5809,6 +5843,445 @@
           <t>3/50</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5904,9 +5905,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5919,10 +5917,6 @@
           <t>4178</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5938,9 +5932,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5986,9 +5977,6 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6004,9 +5992,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6022,9 +6007,6 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6037,10 +6019,6 @@
           <t>4247</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6056,9 +6034,6 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6071,10 +6046,6 @@
           <t>4287</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6117,15 +6088,337 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4172</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6133,23 +6426,14 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6159,15 +6443,14 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6177,13 +6460,14 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6193,17 +6477,8 @@
           <t>4337</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6211,29 +6486,12 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.54%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6241,15 +6499,14 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6259,15 +6516,14 @@
           <t>4375</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6277,11 +6533,16 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5905,6 +5904,9 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5917,6 +5919,10 @@
           <t>4178</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5932,6 +5938,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5977,6 +5986,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5992,6 +6004,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6007,6 +6022,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6019,6 +6037,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6034,6 +6056,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6046,6 +6071,10 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6088,6 +6117,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6113,6 +6146,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6128,6 +6162,9 @@
       <c r="B15" t="n">
         <v>10</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6140,6 +6177,10 @@
           <t>4334</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6155,6 +6196,9 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6200,6 +6244,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6215,6 +6262,9 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6227,322 +6277,11 @@
           <t>4376</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4172</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4174</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4178</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3698.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/08/2009</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>23/09/2009</t>
@@ -1426,6 +1428,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/08/2016</t>
@@ -1473,6 +1476,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -1624,6 +1628,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -1723,6 +1728,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -1822,6 +1828,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -2025,6 +2032,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -2072,6 +2080,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -2119,6 +2128,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -2218,6 +2228,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -2317,6 +2328,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -2364,6 +2376,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -2515,6 +2528,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -2562,6 +2576,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/07/2018</t>
@@ -2609,6 +2624,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -2656,6 +2672,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -2703,6 +2720,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -2802,6 +2820,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -2849,6 +2868,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2896,6 +2916,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2995,6 +3016,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -3042,6 +3064,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -3141,6 +3164,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>03/06/2019</t>
@@ -3240,6 +3264,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -3287,6 +3312,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/06/2019</t>
@@ -3334,6 +3360,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -3381,6 +3408,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>29/06/2019</t>
@@ -3480,6 +3508,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>30/09/2019</t>
@@ -3527,6 +3556,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -5847,443 +5877,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4174</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4178</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.86%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.54%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>